--- a/report/drafting/3_28_2024/Figures/Table1_Shasta.xlsx
+++ b/report/drafting/3_28_2024/Figures/Table1_Shasta.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mattc\Documents\DL-reservoir-modeling\report\drafting\2_27_2024\Figures\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mattc\Documents\DL-reservoir-modeling\report\drafting\3_28_2024\Figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B4A654-9577-4429-B8FB-AE18C1175747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{205ED6AC-5C40-4C0A-95E4-6CA6AB630A41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="21600" windowHeight="13749" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
   <si>
-    <t>MC-LSTM</t>
-  </si>
-  <si>
     <t>Model</t>
   </si>
   <si>
@@ -73,6 +70,9 @@
   </si>
   <si>
     <t>LSTM Model 1*</t>
+  </si>
+  <si>
+    <t>RNN Model 4</t>
   </si>
 </sst>
 </file>
@@ -136,7 +136,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -151,6 +151,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -458,29 +461,29 @@
     <row r="2" spans="1:7" ht="33.450000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" s="2">
         <v>0.73</v>
@@ -496,10 +499,10 @@
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="2">
         <v>0.74</v>
@@ -514,68 +517,68 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
-      <c r="B5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="4">
+      <c r="B5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="6">
         <v>0.59</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="6">
         <v>0.6</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="6">
         <v>0.52</v>
       </c>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0.82</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0.65</v>
+      <c r="C6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.41</v>
       </c>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
       <c r="B7" s="2" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="2">
-        <v>0.38</v>
+        <v>0.82</v>
       </c>
       <c r="E7" s="2">
-        <v>0.44</v>
+        <v>0.75</v>
       </c>
       <c r="F7" s="2">
-        <v>0.11</v>
+        <v>0.65</v>
       </c>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
       <c r="B8" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" s="2">
         <v>0.4</v>
@@ -591,10 +594,10 @@
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
       <c r="B9" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9" s="2">
         <v>0.64</v>
@@ -610,10 +613,10 @@
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
       <c r="B10" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" s="2">
         <v>0.42</v>
@@ -629,10 +632,10 @@
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
       <c r="B11" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D11" s="2">
         <v>0.69</v>
